--- a/指数代码.xlsx
+++ b/指数代码.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25BD8A-FF3F-E944-ACB5-6FF19B0063F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB565D85-40E9-1649-B26E-27703A2A4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>2.931151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.930641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -535,57 +543,65 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/指数代码.xlsx
+++ b/指数代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB565D85-40E9-1649-B26E-27703A2A4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFFC11-5C86-1442-98A5-F9632890BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>中药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.399997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证白酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -535,73 +543,81 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/指数代码.xlsx
+++ b/指数代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFFC11-5C86-1442-98A5-F9632890BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66D00B-A889-1949-B763-98FD12889799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90.BK0438</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,18 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90.BK0473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90.BK1046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +133,12 @@
   <si>
     <t>中证白酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.399975</t>
+  </si>
+  <si>
+    <t>2.930901</t>
   </si>
 </sst>
 </file>
@@ -484,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -519,50 +509,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,26 +589,18 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/指数代码.xlsx
+++ b/指数代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66D00B-A889-1949-B763-98FD12889799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E566D-7A85-354B-B09B-23A315BA2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>2.930901</t>
+  </si>
+  <si>
+    <t>0.399989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -603,6 +611,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/指数代码.xlsx
+++ b/指数代码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaolu/PycharmProjects/pythonJijin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E566D-7A85-354B-B09B-23A315BA2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF560782-A1BF-434E-B758-6B7977A804A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>中证医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.000300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -619,6 +627,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
